--- a/homicidiosMulheresNaoNegrasPais.xlsx
+++ b/homicidiosMulheresNaoNegrasPais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsg-k\IdeaProjects\Excel-Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsg-k\IdeaProjects\guiExample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DCE539-83A9-47F5-9F6A-F719D24934D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23AC734-1366-472F-838D-89D672CA33EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -557,10 +557,10 @@
     <xf numFmtId="39" fontId="18" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -626,6 +626,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -691,7 +727,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -815,42 +851,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -936,7 +936,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1145,12 +1145,14 @@
     <tableColumn id="2" xr3:uid="{79B87BDB-C2DF-4A0A-BCFC-A24FEBF27EBB}" name="Valor" headerRowDxfId="13" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{02B1B12F-45CD-490C-AE5A-5ACBD55C56A2}" name="Média Aritmética" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Título 3"/>
     <tableColumn id="4" xr3:uid="{8146E42E-8E18-45D8-8B2C-E34FBB84268A}" name="Desvio Médio" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Título 3"/>
-    <tableColumn id="5" xr3:uid="{219B4DC5-6791-44C2-A217-7AA6BBF14EEF}" name="Desvio Padrão" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Título 3"/>
-    <tableColumn id="6" xr3:uid="{9EB20D7F-F4D3-4E69-AB9F-5B28ED6F0F89}" name="Variância Populacional" headerRowDxfId="5" dataDxfId="4" dataCellStyle="Título 3"/>
-    <tableColumn id="7" xr3:uid="{949C2FAE-BC42-4883-A183-631B33280658}" name="Coeficiente de Variação" headerRowDxfId="3" dataDxfId="2" dataCellStyle="Título 3">
+    <tableColumn id="5" xr3:uid="{219B4DC5-6791-44C2-A217-7AA6BBF14EEF}" name="Desvio Padrão" headerRowDxfId="7" dataDxfId="0" dataCellStyle="Título 3">
+      <calculatedColumnFormula>_xlfn.MODE.SNGL(TabelaHMNaoNP[[#All],[Valor]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9EB20D7F-F4D3-4E69-AB9F-5B28ED6F0F89}" name="Variância Populacional" headerRowDxfId="6" dataDxfId="5" dataCellStyle="Título 3"/>
+    <tableColumn id="7" xr3:uid="{949C2FAE-BC42-4883-A183-631B33280658}" name="Coeficiente de Variação" headerRowDxfId="4" dataDxfId="3" dataCellStyle="Título 3">
       <calculatedColumnFormula>E1/C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FF9E5496-2E07-49E2-A5A7-D6289FF5A891}" name="Variância Amostral" headerRowDxfId="1" dataDxfId="0" dataCellStyle="Título 3"/>
+    <tableColumn id="8" xr3:uid="{FF9E5496-2E07-49E2-A5A7-D6289FF5A891}" name="Variância Amostral" headerRowDxfId="2" dataDxfId="1" dataCellStyle="Título 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1456,7 +1458,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" activeCellId="5" sqref="C18 D18 E18 F18 G18 H18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,20 +1723,20 @@
         <v>1630.3888888888889</v>
       </c>
       <c r="D18" s="4">
-        <f>AVEDEV(B1:B18)</f>
-        <v>68.611111111111114</v>
+        <f>MEDIAN(B1:B18)</f>
+        <v>1628.5</v>
       </c>
       <c r="E18" s="4">
+        <f>_xlfn.MODE.SNGL(B1:B18)</f>
+        <v>1641</v>
+      </c>
+      <c r="F18" s="4">
         <f>_xlfn.STDEV.P(B1:B18)</f>
         <v>86.034320599326264</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <f>_xlfn.VAR.P(B1:B18)</f>
         <v>7401.9043209876545</v>
-      </c>
-      <c r="G18" s="4">
-        <f>E18/C18</f>
-        <v>5.2769201989568706E-2</v>
       </c>
       <c r="H18" s="5">
         <f>_xlfn.VAR.S(B1:B18)</f>
@@ -1756,6 +1758,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E18" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
